--- a/DMP_Table_1.xlsx
+++ b/DMP_Table_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiavasallovega/repolab/work/EGA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F838E110-36EF-D245-B97A-FEE50E76AC61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4D6E5D-4E57-5B48-B3A1-8AB1E8818A55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{1790AF50-74D0-FB40-B0B9-2F6016CB104D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Socio-demographics</t>
   </si>
@@ -141,13 +141,13 @@
     <t>3000 x  400</t>
   </si>
   <si>
-    <t>3000 x 1,5</t>
-  </si>
-  <si>
     <t>VCF3.4</t>
   </si>
   <si>
     <t>BCF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 </t>
   </si>
   <si>
     <t>methodology, QC scores, depth, coverage, ethnic score</t>
@@ -216,8 +216,20 @@
 of metadata</t>
   </si>
   <si>
-    <t>Rquired
+    <t>Required
 metadata</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>0.9 GB</t>
+  </si>
+  <si>
+    <t>1.7 GB</t>
+  </si>
+  <si>
+    <t>txt</t>
   </si>
 </sst>
 </file>
@@ -591,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2174425F-5879-4745-BBCA-E466DC434D30}">
-  <dimension ref="A1:O276"/>
+  <dimension ref="A1:P276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -604,17 +616,17 @@
     <col min="3" max="3" width="28.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="40.33203125" style="2" customWidth="1"/>
     <col min="5" max="6" width="25.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="21" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="31.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -633,30 +645,33 @@
       <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -664,31 +679,34 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
@@ -698,22 +716,25 @@
       <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -724,13 +745,13 @@
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
@@ -738,13 +759,13 @@
         <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
@@ -752,10 +773,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
@@ -765,31 +786,31 @@
       <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E12" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
@@ -797,12 +818,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
@@ -810,7 +831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>

--- a/DMP_Table_1.xlsx
+++ b/DMP_Table_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudiavasallovega/repolab/work/EGA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4D6E5D-4E57-5B48-B3A1-8AB1E8818A55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DBD7CC-E925-0B45-8DF0-7CAE9FE84913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" xr2:uid="{1790AF50-74D0-FB40-B0B9-2F6016CB104D}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Formats</t>
   </si>
   <si>
-    <t>self-report survay</t>
-  </si>
-  <si>
     <t>SQL data base</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>txt</t>
+  </si>
+  <si>
+    <t>administrative database record</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:P276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -628,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
@@ -643,31 +643,31 @@
         <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="M1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="P1" s="4"/>
     </row>
@@ -676,34 +676,34 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -714,24 +714,24 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -742,13 +742,13 @@
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -756,13 +756,13 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -770,10 +770,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -784,30 +784,30 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -828,7 +828,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -857,7 +857,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
@@ -875,13 +875,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
